--- a/Student Attendance Tracker (NOV 23).xlsx
+++ b/Student Attendance Tracker (NOV 23).xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="5970"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15150" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$D$1:$AG$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet2!$A$1:$AG$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -24,9 +25,6 @@
   </si>
   <si>
     <t>Student Name</t>
-  </si>
-  <si>
-    <t>Caleb Brown</t>
   </si>
   <si>
     <t>Ava Thompson</t>
@@ -71,12 +69,6 @@
     <t>Jacob Hall</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Clay Stevens</t>
   </si>
   <si>
@@ -90,6 +82,15 @@
   </si>
   <si>
     <t>Blair Jackson</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -181,14 +182,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,2152 +491,2157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U9" sqref="U9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="14" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="14" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
     <col min="25" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:52" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11">
-        <v>45231</v>
-      </c>
-      <c r="E1" s="11">
-        <f>D1+1</f>
-        <v>45232</v>
-      </c>
-      <c r="F1" s="11">
-        <f t="shared" ref="F1:BA1" si="0">E1+1</f>
-        <v>45233</v>
-      </c>
-      <c r="G1" s="11">
-        <f t="shared" si="0"/>
-        <v>45234</v>
-      </c>
-      <c r="H1" s="11">
-        <f t="shared" si="0"/>
-        <v>45235</v>
-      </c>
-      <c r="I1" s="11">
-        <f t="shared" si="0"/>
-        <v>45236</v>
-      </c>
-      <c r="J1" s="11">
-        <f t="shared" si="0"/>
-        <v>45237</v>
-      </c>
-      <c r="K1" s="11">
-        <f t="shared" si="0"/>
-        <v>45238</v>
-      </c>
-      <c r="L1" s="11">
-        <f t="shared" si="0"/>
-        <v>45239</v>
-      </c>
-      <c r="M1" s="11">
-        <f t="shared" si="0"/>
-        <v>45240</v>
-      </c>
-      <c r="N1" s="11">
-        <f t="shared" si="0"/>
-        <v>45241</v>
-      </c>
-      <c r="O1" s="11">
-        <f t="shared" si="0"/>
-        <v>45242</v>
-      </c>
-      <c r="P1" s="11">
-        <f t="shared" si="0"/>
-        <v>45243</v>
-      </c>
-      <c r="Q1" s="11">
-        <f t="shared" si="0"/>
-        <v>45244</v>
-      </c>
-      <c r="R1" s="11">
-        <f t="shared" si="0"/>
-        <v>45245</v>
-      </c>
-      <c r="S1" s="11">
-        <f t="shared" si="0"/>
-        <v>45246</v>
-      </c>
-      <c r="T1" s="11">
-        <f t="shared" si="0"/>
-        <v>45247</v>
-      </c>
-      <c r="U1" s="11">
-        <f t="shared" si="0"/>
-        <v>45248</v>
-      </c>
-      <c r="V1" s="11">
-        <f t="shared" si="0"/>
-        <v>45249</v>
-      </c>
-      <c r="W1" s="11">
-        <f t="shared" si="0"/>
-        <v>45250</v>
-      </c>
-      <c r="X1" s="11">
-        <f t="shared" si="0"/>
-        <v>45251</v>
-      </c>
-      <c r="Y1" s="11">
-        <f t="shared" si="0"/>
-        <v>45252</v>
-      </c>
-      <c r="Z1" s="11">
-        <f t="shared" si="0"/>
-        <v>45253</v>
-      </c>
-      <c r="AA1" s="11">
-        <f t="shared" si="0"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="9">
+        <f ca="1">TODAY()</f>
         <v>45254</v>
       </c>
-      <c r="AB1" s="11">
-        <f t="shared" si="0"/>
+      <c r="E1" s="9">
+        <f ca="1">D1+1</f>
         <v>45255</v>
       </c>
-      <c r="AC1" s="11">
-        <f t="shared" si="0"/>
+      <c r="F1" s="9">
+        <f t="shared" ref="F1:AG1" ca="1" si="0">E1+1</f>
         <v>45256</v>
       </c>
-      <c r="AD1" s="11">
-        <f t="shared" si="0"/>
+      <c r="G1" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>45257</v>
       </c>
-      <c r="AE1" s="11">
-        <f t="shared" si="0"/>
+      <c r="H1" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>45258</v>
       </c>
-      <c r="AF1" s="11">
-        <f t="shared" si="0"/>
+      <c r="I1" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>45259</v>
       </c>
-      <c r="AG1" s="11">
-        <f t="shared" si="0"/>
+      <c r="J1" s="9">
+        <f t="shared" ca="1" si="0"/>
         <v>45260</v>
       </c>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-    </row>
-    <row r="2" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45261</v>
+      </c>
+      <c r="L1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45262</v>
+      </c>
+      <c r="M1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45263</v>
+      </c>
+      <c r="N1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45264</v>
+      </c>
+      <c r="O1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45265</v>
+      </c>
+      <c r="P1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45266</v>
+      </c>
+      <c r="Q1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45267</v>
+      </c>
+      <c r="R1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45268</v>
+      </c>
+      <c r="S1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45269</v>
+      </c>
+      <c r="T1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45270</v>
+      </c>
+      <c r="U1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45271</v>
+      </c>
+      <c r="V1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45272</v>
+      </c>
+      <c r="W1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45273</v>
+      </c>
+      <c r="X1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45274</v>
+      </c>
+      <c r="Y1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45275</v>
+      </c>
+      <c r="Z1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45276</v>
+      </c>
+      <c r="AA1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45277</v>
+      </c>
+      <c r="AB1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45278</v>
+      </c>
+      <c r="AC1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45279</v>
+      </c>
+      <c r="AD1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45280</v>
+      </c>
+      <c r="AE1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45281</v>
+      </c>
+      <c r="AF1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45282</v>
+      </c>
+      <c r="AG1" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45283</v>
+      </c>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+    </row>
+    <row r="2" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13579</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21467</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>28954</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>34812</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>42356</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="V6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="W6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50789</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AD7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>65432</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="V8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>72198</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="S9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="W9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>86753</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>92345</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="X11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AD11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>104567</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AC12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>112233</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120987</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>135790</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="V15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>143625</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>889701</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7"/>
+      <c r="B17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AB17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AD17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>760123</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7"/>
+      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>567915</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7"/>
+      <c r="B19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AG19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>438741</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7"/>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>921540</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="8"/>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7"/>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -2643,6 +2649,7 @@
       <c r="C22" s="1"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="5">
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -2650,6 +2657,17 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AG21">
+      <formula1>"Present,Absent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C22:C1048576">
+      <formula1>$B$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C21">
+      <formula1>$B$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="19" orientation="portrait" r:id="rId1"/>
 </worksheet>
